--- a/web/public/documents/Mileage tracker.xlsx
+++ b/web/public/documents/Mileage tracker.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuart/Library/CloudStorage/Box-Box/Business/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuart/Library/CloudStorage/Box-Box/Business/Spreadsheets and calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3105902-6C55-984E-9EC7-B3ECCE6070C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1DD32A-66AE-2043-8288-8B3F3D16DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="35900" xr2:uid="{7D423C7A-7B8E-0A4B-838B-251E9C8C1AF1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="35920" xr2:uid="{7D423C7A-7B8E-0A4B-838B-251E9C8C1AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Person A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,102 @@
   </si>
   <si>
     <t>Total claim</t>
+  </si>
+  <si>
+    <t>Visit to ABC Limited for client meeting (return)</t>
+  </si>
+  <si>
+    <t>VAT reclaim</t>
+  </si>
+  <si>
+    <t>Advisory fuel rate</t>
+  </si>
+  <si>
+    <t>Total VAT for all trips</t>
+  </si>
+  <si>
+    <t>⬅️ See the gov.uk website</t>
+  </si>
+  <si>
+    <t>VAT on fuel element</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Mileage for July 2024 - Non-fuel element</t>
+  </si>
+  <si>
+    <t>Travel - National</t>
+  </si>
+  <si>
+    <t>Zero Rated Expenses</t>
+  </si>
+  <si>
+    <t>Amount GBP</t>
+  </si>
+  <si>
+    <t>Mileage for July 2024 - Fuel element</t>
+  </si>
+  <si>
+    <t>20% (VAT on Expenses)</t>
+  </si>
+  <si>
+    <t>Recording your mileage claim in Xero</t>
+  </si>
+  <si>
+    <t>You should enter your mileage claim at the end of each VAT quarter when reclaiming VAT</t>
+  </si>
+  <si>
+    <t>Mileage for July 2024</t>
+  </si>
+  <si>
+    <t>➡️ Your business is VAT registered</t>
+  </si>
+  <si>
+    <t>➡️ You have enough fuel receipts to cover the VAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⚠️ Make sure you select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Amounts are: Tax Inclusive"</t>
+    </r>
+  </si>
+  <si>
+    <t>Option 1: You want to reclaim the VAT</t>
+  </si>
+  <si>
+    <t>Option 2: You don't want to, or cannot, reclaim the VAT</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <r>
@@ -116,6 +212,26 @@
       </rPr>
       <t xml:space="preserve">2. Add details of all your trips from the last tax year, replacing our example
 3. Copy this tab and enter the details for any other directors or employees
+4. Optionally, calculate the amount of VAT that can be reclaimed (if your business is VAT registered) below. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: If you are completing this for your annual accounts, please upload photos of fuel receipts showing at least as much VAT as the amount below. Otherwise you should attach them to the bill in Xero.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -128,9 +244,6 @@
       </rPr>
       <t>Note: Only the driver can claim for trips</t>
     </r>
-  </si>
-  <si>
-    <t>Visit to ABC Limited for client meeting (return)</t>
   </si>
 </sst>
 </file>
@@ -140,9 +253,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +297,22 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -311,25 +440,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -346,7 +578,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,10 +593,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -380,6 +647,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -389,6 +657,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -405,7 +674,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -428,11 +697,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -607,22 +874,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{661B0D7B-FBCC-D143-A160-1D5E548EEA0D}" name="Table1" displayName="Table1" ref="F5:H8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{661B0D7B-FBCC-D143-A160-1D5E548EEA0D}" name="Table1" displayName="Table1" ref="F5:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CAF0D726-01F8-6F48-BAC0-718D9080BFFD}" name="HMRC approved rates" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7BA794C2-71FD-6643-8695-912B85B439BC}" name="First 10,000 miles" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{536FB9F0-0859-0749-91A6-591E987218A3}" name="Additional miles" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{CAF0D726-01F8-6F48-BAC0-718D9080BFFD}" name="HMRC approved rates" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7BA794C2-71FD-6643-8695-912B85B439BC}" name="First 10,000 miles" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{536FB9F0-0859-0749-91A6-591E987218A3}" name="Additional miles" dataDxfId="5" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8520E2E-3179-4441-B2E0-9F0C2924F1DD}" name="Table2" displayName="Table2" ref="A1:C101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8520E2E-3179-4441-B2E0-9F0C2924F1DD}" name="Table2" displayName="Table2" ref="A1:C101" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6DAE737F-B522-AB40-9786-6FE5989AE1C7}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1A6929B6-D8D1-D941-AEEC-88AEC8CF2E30}" name="Trip description" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8715A57F-A346-7B42-9BB8-980899B756CF}" name="Distance (miles)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6DAE737F-B522-AB40-9786-6FE5989AE1C7}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1A6929B6-D8D1-D941-AEEC-88AEC8CF2E30}" name="Trip description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8715A57F-A346-7B42-9BB8-980899B756CF}" name="Distance (miles)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07DB024-1CB0-FC47-9AE3-7F68302B0999}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -957,12 +1224,16 @@
     <col min="2" max="2" width="87.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="48.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -978,22 +1249,23 @@
       <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44958</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1287,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1298,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1309,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1327,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1336,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1348,7 @@
     <row r="18" spans="6:8" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="6:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -1121,40 +1393,282 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="6:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="6:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="10">
+        <f>ROUND(G38/120*20,2)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12">
+        <f>SUM(C:C)*G39</f>
+        <v>3.7199999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="46">
+        <f>$G$11</f>
+        <v>124</v>
+      </c>
+      <c r="H52" s="47">
+        <f>G12-G38</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="38">
+        <f>G52*H52</f>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="46">
+        <f>$G$11</f>
+        <v>124</v>
+      </c>
+      <c r="H53" s="47">
+        <f>G38</f>
+        <v>0.15</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="38">
+        <f>G53*H53</f>
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="49">
+        <f>SUM(K52:K53)</f>
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="52"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F58" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="42">
+        <f>$G$11</f>
+        <v>124</v>
+      </c>
+      <c r="H59" s="43">
+        <f>G12</f>
+        <v>0.45</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="41">
+        <f>G59*H59</f>
+        <v>55.800000000000004</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F19:H28"/>
+  <mergeCells count="7">
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F19:H32"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2B4AB9C1-2B1B-134E-BF2B-7647B61C3402}">
       <formula1>"Car or van,Motorcycle,Bicycle"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H38" r:id="rId1" display="See the gov.uk website" xr:uid="{247C3C26-534A-A24E-BE57-265E7A089071}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/web/public/documents/Mileage tracker.xlsx
+++ b/web/public/documents/Mileage tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuart/Library/CloudStorage/Box-Box/Business/Spreadsheets and calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmajames/Library/CloudStorage/Box-Box/Business/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1DD32A-66AE-2043-8288-8B3F3D16DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4135B26-3CDD-FC47-9A1D-C5DA8B02046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="35920" xr2:uid="{7D423C7A-7B8E-0A4B-838B-251E9C8C1AF1}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="25040" windowHeight="28300" xr2:uid="{7D423C7A-7B8E-0A4B-838B-251E9C8C1AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Person A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -92,13 +92,7 @@
     <t>Advisory fuel rate</t>
   </si>
   <si>
-    <t>Total VAT for all trips</t>
-  </si>
-  <si>
     <t>⬅️ See the gov.uk website</t>
-  </si>
-  <si>
-    <t>VAT on fuel element</t>
   </si>
   <si>
     <t>Description</t>
@@ -549,7 +543,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -566,6 +560,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -599,34 +615,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1214,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07DB024-1CB0-FC47-9AE3-7F68302B0999}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1249,10 +1240,10 @@
       <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1347,82 +1338,82 @@
     </row>
     <row r="18" spans="6:8" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="6:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="6:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
@@ -1432,229 +1423,198 @@
       <c r="G38" s="10">
         <v>0.15</v>
       </c>
-      <c r="H38" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10">
-        <f>ROUND(G38/120*20,2)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F40" s="5" t="s">
+      <c r="H38" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="12">
-        <f>SUM(C:C)*G39</f>
-        <v>3.7199999999999998</v>
-      </c>
+      <c r="I38" s="49"/>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F43" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F44" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="29"/>
+      <c r="F44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="33"/>
     </row>
     <row r="46" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="31"/>
+      <c r="F46" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F47" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="34"/>
+      <c r="F47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F48" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
+      <c r="F48" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="34"/>
+      <c r="F49" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
+      <c r="F50" s="16"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="I51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="J51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="K51" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="46">
+      <c r="G52" s="26">
         <f>$G$11</f>
         <v>124</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="27">
         <f>G12-G38</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I52" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="38">
+      <c r="I52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="20">
         <f>G52*H52</f>
         <v>37.200000000000003</v>
       </c>
     </row>
     <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="46">
+      <c r="F53" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="26">
         <f>$G$11</f>
         <v>124</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="27">
         <f>G38</f>
         <v>0.15</v>
       </c>
-      <c r="I53" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="38">
+      <c r="I53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="20">
         <f>G53*H53</f>
         <v>18.599999999999998</v>
       </c>
     </row>
     <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="49">
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="29">
         <f>SUM(K52:K53)</f>
         <v>55.8</v>
       </c>
     </row>
     <row r="57" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F57" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="31"/>
+      <c r="F57" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="15"/>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="I58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="J58" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>29</v>
+      <c r="K58" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F59" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="42">
+      <c r="F59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="24">
         <f>$G$11</f>
         <v>124</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="25">
         <f>G12</f>
         <v>0.45</v>
       </c>
-      <c r="I59" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="41">
+      <c r="I59" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="23">
         <f>G59*H59</f>
         <v>55.800000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F19:H32"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2B4AB9C1-2B1B-134E-BF2B-7647B61C3402}">
